--- a/Soccer Analysis and Poisson.xlsx
+++ b/Soccer Analysis and Poisson.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nannh\Desktop\Soccer Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2B8E01-0DD1-4234-915C-B1CEB3F49B3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BC3F59-BDD8-4DA0-A96F-EF5433A4689F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{51549586-BAB4-4AD4-B1D8-049727766590}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{51549586-BAB4-4AD4-B1D8-049727766590}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary and Poisson" sheetId="1" r:id="rId1"/>
-    <sheet name="Winning Odds (side stuff)" sheetId="5" r:id="rId2"/>
+    <sheet name="Winning Odds and Best Seats" sheetId="5" r:id="rId2"/>
     <sheet name="Simple Stats" sheetId="3" r:id="rId3"/>
-    <sheet name="Background Data" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Simple Stats'!$D$3:$P$23</definedName>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="67">
   <si>
     <t>Scored Goals</t>
   </si>
@@ -126,18 +125,12 @@
     <t>Borussia Dortmund</t>
   </si>
   <si>
-    <t>Games Played: 14 Each (7 home and 7 away)</t>
-  </si>
-  <si>
     <t>First Half</t>
   </si>
   <si>
     <t>Second Half</t>
   </si>
   <si>
-    <t>Total Games in Season: 252 (126 home and 126 away)</t>
-  </si>
-  <si>
     <t>League Total</t>
   </si>
   <si>
@@ -198,9 +191,6 @@
     <t>Dortmund Winning</t>
   </si>
   <si>
-    <t>FC Koln Winning</t>
-  </si>
-  <si>
     <t>Likelihood in %</t>
   </si>
   <si>
@@ -208,6 +198,39 @@
   </si>
   <si>
     <t>ADJUSTED</t>
+  </si>
+  <si>
+    <t>Total Games in Season: 153</t>
+  </si>
+  <si>
+    <t>Games Played (Dortmund): 17 (8 Home and 9 Away)</t>
+  </si>
+  <si>
+    <t>Games Played (FC Koln): 17 (8 Home and 9 Away)</t>
+  </si>
+  <si>
+    <t>Seats at the Home Team's Goal (Borussia Dortmund)</t>
+  </si>
+  <si>
+    <t>Scored Goals %</t>
+  </si>
+  <si>
+    <t>Where to sit (weighted #)</t>
+  </si>
+  <si>
+    <t>Koln Goals (weighted #)</t>
+  </si>
+  <si>
+    <t>Borrussia Goals (weighted #)</t>
+  </si>
+  <si>
+    <t>FC Köln</t>
+  </si>
+  <si>
+    <t>Seats at the Away Team's Goal (FC Köln)</t>
+  </si>
+  <si>
+    <t>FC Köln Winning</t>
   </si>
 </sst>
 </file>
@@ -262,7 +285,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,6 +328,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="25">
     <border>
@@ -635,7 +670,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -675,8 +710,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -692,7 +725,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
@@ -718,7 +750,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
@@ -769,18 +800,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="5" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -820,7 +856,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -834,13 +870,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Percentage</a:t>
+              <a:t>Likely outcomes</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> outcomes</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -857,7 +888,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -883,7 +914,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Winning Odds (side stuff)'!$D$22</c:f>
+              <c:f>'Winning Odds and Best Seats'!$D$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -897,56 +928,54 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FFFF00"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-DE12-484A-AB3E-16614899E4D9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-DE12-484A-AB3E-16614899E4D9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -957,6 +986,58 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.20765261485171496"/>
+                  <c:y val="7.7979002624671917E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr" rtl="0">
+                      <a:defRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:sysClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>
+</a:t>
+                    </a:r>
+                    <a:fld id="{19980B33-C968-4EE8-9868-AE38E68265B5}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr algn="ctr" rtl="0">
+                        <a:defRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:sysClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[PERCENTAGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -965,103 +1046,18 @@
                 <a:effectLst/>
               </c:spPr>
               <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
                   <a:spAutoFit/>
                 </a:bodyPr>
                 <a:lstStyle/>
                 <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                  <a:pPr algn="ctr" rtl="0">
+                    <a:defRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="accent2"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-DE12-484A-AB3E-16614899E4D9}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent4"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-DE12-484A-AB3E-16614899E4D9}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-2.7812543457099151E-3"/>
-                  <c:y val="6.9204152249134912E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent6"/>
+                        <a:sysClr val="windowText" lastClr="000000">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:sysClr>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -1079,13 +1075,259 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-DE12-484A-AB3E-16614899E4D9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.16094977923677908"/>
+                  <c:y val="-3.9001186495523678E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+                      <a:t>
+</a:t>
+                    </a:r>
+                    <a:fld id="{E7AD1D0C-8FB3-4D9C-968B-6C6A65E00269}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+                      <a:pPr>
+                        <a:defRPr sz="1400" b="1"/>
+                      </a:pPr>
+                      <a:t>[PERCENTAGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1400" b="1" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-DE12-484A-AB3E-16614899E4D9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr" rtl="0">
+                      <a:defRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:sysClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:sysClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <a:t>TIE
+</a:t>
+                    </a:r>
+                    <a:fld id="{F60354C8-6070-4166-9564-9C48CA5A7EDE}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:sysClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr" rtl="0">
+                        <a:defRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:sysClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[PERCENTAGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:sysClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr" rtl="0">
+                    <a:defRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:sysClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-DE12-484A-AB3E-16614899E4D9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
-            <c:dLblPos val="outEnd"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="1"/>
@@ -1113,14 +1355,14 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Winning Odds (side stuff)'!$C$23:$C$25</c:f>
+              <c:f>'Winning Odds and Best Seats'!$C$25:$C$27</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Dortmund Winning</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FC Koln Winning</c:v>
+                  <c:v>FC Köln Winning</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Likelihood of a Tie</c:v>
@@ -1130,18 +1372,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Winning Odds (side stuff)'!$D$23:$D$25</c:f>
+              <c:f>'Winning Odds and Best Seats'!$D$25:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.53418472788046434</c:v>
+                  <c:v>0.55358298243831661</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26274281028346941</c:v>
+                  <c:v>0.26087516561384899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20307246183606631</c:v>
+                  <c:v>0.18234766604937969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1153,7 +1395,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1172,6 +1414,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1254,7 +1527,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1265,7 +1538,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1277,6 +1550,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -1300,25 +1584,29 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <cs:styleClr val="auto"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <cs:styleClr val="auto"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1326,65 +1614,50 @@
       </a:solidFill>
       <a:ln>
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="10000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-      <a:scene3d>
-        <a:camera prst="orthographicFront"/>
-        <a:lightRig rig="threePt" dir="t"/>
-      </a:scene3d>
-      <a:sp3d>
-        <a:bevelT w="127000" h="127000"/>
-        <a:bevelB w="127000" h="127000"/>
-      </a:sp3d>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -1394,7 +1667,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -1406,26 +1679,25 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -1433,7 +1705,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1638,7 +1910,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -1646,7 +1918,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1690,7 +1962,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1706,7 +1978,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1779,13 +2051,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>272415</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>172402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>62865</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>27622</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1809,6 +2081,212 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>51418</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>335280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>63351</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>978408</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{883BA043-07B5-4AAB-B996-E11577ED2C4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4783438" y="2758440"/>
+          <a:ext cx="1886453" cy="1389888"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1607820</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Graphic 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47E81E55-C8E1-4AC7-9C3B-F25910C74B6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1440180" y="3627120"/>
+          <a:ext cx="1386840" cy="1386840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>460818</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>261471</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>147828</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F78B196-4BC0-4478-8745-87D99ADF2231}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5192838" y="6301740"/>
+          <a:ext cx="852213" cy="627888"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Graphic 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F31F77C3-120D-4CE7-BDAE-B23C5763DDCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6149340" y="6065520"/>
+          <a:ext cx="899160" cy="899160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2113,8 +2591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C096500-454C-4601-9EFB-9C3C48EE02E8}">
   <dimension ref="B2:S35"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H11" sqref="B2:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2135,362 +2613,348 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="D2" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="64"/>
-      <c r="G2" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="64"/>
+      <c r="D2" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="60"/>
+      <c r="G2" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="60"/>
       <c r="K2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="75" t="s">
-        <v>17</v>
+      <c r="M2" s="71" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+      <c r="C3" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="51" t="s">
-        <v>17</v>
+      <c r="H3" s="84" t="s">
+        <v>64</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
       </c>
       <c r="L3" s="1">
-        <f>_xlfn.POISSON.DIST(K3,$I$20,FALSE)</f>
-        <v>0.10501925580887098</v>
+        <v>6.6247044743868458E-2</v>
       </c>
       <c r="M3" s="1">
-        <f>_xlfn.POISSON.DIST(K3,$I$21,FALSE)</f>
-        <v>0.21376945818647108</v>
+        <v>0.15358987356468695</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="55" t="s">
-        <v>32</v>
+      <c r="B4" s="51" t="s">
+        <v>31</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="52">
         <f>_xlfn.POISSON.DIST(C4,$I$16,FALSE)</f>
-        <v>0.51656690745981193</v>
-      </c>
-      <c r="E4" s="56">
+        <v>0.44838771499517904</v>
+      </c>
+      <c r="E4" s="52">
         <f>_xlfn.POISSON.DIST(C4,$I$17,FALSE)</f>
-        <v>0.35764583465514727</v>
+        <v>0.28692247290117345</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="62">
+      <c r="G4" s="58">
         <f>D4/SUM($D$4:$D$7)</f>
-        <v>0.51900871955200334</v>
-      </c>
-      <c r="H4" s="62">
+        <v>0.45253314211590395</v>
+      </c>
+      <c r="H4" s="58">
         <f>E4/SUM($E$4:$E$7)</f>
-        <v>0.36523056085553141</v>
+        <v>0.29829755175788064</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" ref="L4:L15" si="0">_xlfn.POISSON.DIST(K4,$I$20,FALSE)</f>
-        <v>0.23667260859655675</v>
+        <v>0.18128691400443162</v>
       </c>
       <c r="M4" s="1">
-        <f t="shared" ref="M4:M13" si="1">_xlfn.POISSON.DIST(K4,$I$21,FALSE)</f>
-        <v>0.32981573548769827</v>
+        <v>0.28774592639261759</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B5" s="59"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="56">
-        <f t="shared" ref="D5:D10" si="2">_xlfn.POISSON.DIST(C5,$I$16,FALSE)</f>
-        <v>0.34121850767987577</v>
-      </c>
-      <c r="E5" s="56">
-        <f t="shared" ref="E5:E7" si="3">_xlfn.POISSON.DIST(C5,$I$17,FALSE)</f>
-        <v>0.36773576430783417</v>
+      <c r="D5" s="52">
+        <f t="shared" ref="D5:D7" si="0">_xlfn.POISSON.DIST(C5,$I$16,FALSE)</f>
+        <v>0.35965043457018286</v>
+      </c>
+      <c r="E5" s="52">
+        <f t="shared" ref="E5:E7" si="1">_xlfn.POISSON.DIST(C5,$I$17,FALSE)</f>
+        <v>0.35823511078244158</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="62">
-        <f t="shared" ref="G5:G7" si="4">D5/SUM($D$4:$D$7)</f>
-        <v>0.3428314477774701</v>
-      </c>
-      <c r="H5" s="62">
-        <f t="shared" ref="H5:H7" si="5">E5/SUM($E$4:$E$7)</f>
-        <v>0.3755344713417168</v>
+      <c r="G5" s="58">
+        <f t="shared" ref="G5:G7" si="2">D5/SUM($D$4:$D$7)</f>
+        <v>0.36297546916767126</v>
+      </c>
+      <c r="H5" s="58">
+        <f t="shared" ref="H5:H7" si="3">E5/SUM($E$4:$E$7)</f>
+        <v>0.37243738846807645</v>
       </c>
       <c r="K5" s="1">
         <v>2</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.26668406297717956</v>
+        <v>0.24804838703610263</v>
       </c>
       <c r="M5" s="1">
-        <f t="shared" si="1"/>
-        <v>0.25442928166193873</v>
+        <v>0.26954159227390107</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="59"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="56">
-        <f t="shared" si="2"/>
-        <v>0.11269602088509655</v>
-      </c>
-      <c r="E6" s="56">
-        <f t="shared" si="3"/>
-        <v>0.18905517588574652</v>
+      <c r="D6" s="52">
+        <f t="shared" si="0"/>
+        <v>0.14423726471622009</v>
+      </c>
+      <c r="E6" s="52">
+        <f t="shared" si="1"/>
+        <v>0.22363601097483671</v>
       </c>
       <c r="F6" s="1">
         <v>2</v>
       </c>
-      <c r="G6" s="62">
-        <f t="shared" si="4"/>
-        <v>0.1132287350457699</v>
-      </c>
-      <c r="H6" s="62">
-        <f t="shared" si="5"/>
-        <v>0.1930645382406625</v>
+      <c r="G6" s="58">
+        <f t="shared" si="2"/>
+        <v>0.14557076483002279</v>
+      </c>
+      <c r="H6" s="58">
+        <f t="shared" si="3"/>
+        <v>0.23250208979507053</v>
       </c>
       <c r="K6" s="1">
         <v>3</v>
       </c>
       <c r="L6" s="1">
+        <v>0.22626381188480077</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.16832597395064025</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="56"/>
+      <c r="C7" s="49">
+        <v>3</v>
+      </c>
+      <c r="D7" s="53">
         <f t="shared" si="0"/>
-        <v>0.20033409546279302</v>
-      </c>
-      <c r="M6" s="1">
+        <v>3.8564091745883232E-2</v>
+      </c>
+      <c r="E7" s="53">
         <f t="shared" si="1"/>
-        <v>0.13084934485471134</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="60"/>
-      <c r="C7" s="53">
+        <v>9.3073075752775708E-2</v>
+      </c>
+      <c r="F7" s="49">
         <v>3</v>
       </c>
-      <c r="D7" s="57">
+      <c r="G7" s="59">
         <f t="shared" si="2"/>
-        <v>2.4813802763690985E-2</v>
-      </c>
-      <c r="E7" s="57">
+        <v>3.8920623886401905E-2</v>
+      </c>
+      <c r="H7" s="59">
         <f t="shared" si="3"/>
-        <v>6.4796271305412656E-2</v>
-      </c>
-      <c r="F7" s="53">
-        <v>3</v>
-      </c>
-      <c r="G7" s="63">
-        <f t="shared" si="4"/>
-        <v>2.4931097624756676E-2</v>
-      </c>
-      <c r="H7" s="63">
-        <f t="shared" si="5"/>
-        <v>6.6170429562089253E-2</v>
+        <v>9.6762969978972366E-2</v>
       </c>
       <c r="K7" s="1">
         <v>4</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.11286880819813865</v>
+        <v>0.15479433220782002</v>
       </c>
       <c r="M7" s="1">
-        <f t="shared" si="1"/>
-        <v>5.0470461586817242E-2</v>
+        <v>7.883838984014685E-2</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="52">
+      <c r="B8" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="48">
         <v>0</v>
       </c>
-      <c r="D8" s="58">
+      <c r="D8" s="54">
         <f>_xlfn.POISSON.DIST(C8,$I$18,FALSE)</f>
-        <v>0.21307477559835086</v>
-      </c>
-      <c r="E8" s="61">
+        <v>0.15298401275941495</v>
+      </c>
+      <c r="E8" s="57">
         <f>_xlfn.POISSON.DIST(C8,$I$19,FALSE)</f>
-        <v>0.61686048058126752</v>
-      </c>
-      <c r="F8" s="52">
+        <v>0.55619490747439737</v>
+      </c>
+      <c r="F8" s="48">
         <v>0</v>
       </c>
-      <c r="G8" s="58">
+      <c r="G8" s="54">
         <f>D8/(SUM($D$8:$D$11))</f>
-        <v>0.2294983042843286</v>
-      </c>
-      <c r="H8" s="58">
+        <v>0.17413491420467697</v>
+      </c>
+      <c r="H8" s="54">
         <f>E8/(SUM($E$8:$E$11))</f>
-        <v>0.61781630855062264</v>
+        <v>0.55792505498561373</v>
       </c>
       <c r="K8" s="1">
         <v>5</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="0"/>
-        <v>5.0872490115629727E-2</v>
+        <v>8.4719814747448913E-2</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" si="1"/>
-        <v>1.5573742432503606E-2</v>
+        <v>2.9540261989083594E-2</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="59"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="58">
+      <c r="D9" s="54">
         <f>_xlfn.POISSON.DIST(C9,$I$18,FALSE)</f>
-        <v>0.32943749210956602</v>
-      </c>
-      <c r="E9" s="61">
-        <f t="shared" ref="E9:E11" si="6">_xlfn.POISSON.DIST(C9,$I$19,FALSE)</f>
-        <v>0.29801295101582792</v>
+        <v>0.28721552899226249</v>
+      </c>
+      <c r="E9" s="57">
+        <f t="shared" ref="E9:E11" si="4">_xlfn.POISSON.DIST(C9,$I$19,FALSE)</f>
+        <v>0.32628423002833534</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="62">
-        <f t="shared" ref="G9:G11" si="7">D9/(SUM($D$8:$D$11))</f>
-        <v>0.35483010879403432</v>
-      </c>
-      <c r="H9" s="62">
-        <f t="shared" ref="H9:H11" si="8">E9/(SUM($E$8:$E$11))</f>
-        <v>0.29847472336594277</v>
+      <c r="G9" s="58">
+        <f t="shared" ref="G9:G11" si="5">D9/(SUM($D$8:$D$11))</f>
+        <v>0.32692469361469645</v>
+      </c>
+      <c r="H9" s="58">
+        <f t="shared" ref="H9:H11" si="6">E9/(SUM($E$8:$E$11))</f>
+        <v>0.32729919769694643</v>
       </c>
       <c r="K9" s="1">
         <v>6</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="0"/>
-        <v>1.9107805276175529E-2</v>
+        <v>3.8639695375527618E-2</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="1"/>
-        <v>4.0046766255009275E-3</v>
+        <v>9.223796090468965E-3</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="59"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="1">
         <v>2</v>
       </c>
-      <c r="D10" s="58">
+      <c r="D10" s="54">
         <f>_xlfn.POISSON.DIST(C10,$I$18,FALSE)</f>
-        <v>0.25467364896354344</v>
-      </c>
-      <c r="E10" s="61">
-        <f t="shared" si="6"/>
-        <v>7.1986876910541411E-2</v>
+        <v>0.26961235558657559</v>
+      </c>
+      <c r="E10" s="57">
+        <f t="shared" si="4"/>
+        <v>9.5705118236887363E-2</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
       </c>
-      <c r="G10" s="62">
-        <f t="shared" si="7"/>
-        <v>0.27430356511654563</v>
-      </c>
-      <c r="H10" s="62">
-        <f t="shared" si="8"/>
-        <v>7.2098420886113956E-2</v>
+      <c r="G10" s="58">
+        <f t="shared" si="5"/>
+        <v>0.30688778233593478</v>
+      </c>
+      <c r="H10" s="58">
+        <f t="shared" si="6"/>
+        <v>9.6002826773774377E-2</v>
       </c>
     </row>
     <row r="11" spans="2:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="B11" s="54"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="1">
         <v>3</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D11" s="54">
         <f>_xlfn.POISSON.DIST(C11,$I$18,FALSE)</f>
-        <v>0.13125133807343564</v>
-      </c>
-      <c r="E11" s="61">
-        <f t="shared" si="6"/>
-        <v>1.159258443784481E-2</v>
+        <v>0.16872537623572187</v>
+      </c>
+      <c r="E11" s="57">
+        <f t="shared" si="4"/>
+        <v>1.8714704979645426E-2</v>
       </c>
       <c r="F11" s="1">
         <v>3</v>
       </c>
-      <c r="G11" s="62">
-        <f t="shared" si="7"/>
-        <v>0.14136802180509139</v>
-      </c>
-      <c r="H11" s="62">
-        <f t="shared" si="8"/>
-        <v>1.1610547197320603E-2</v>
-      </c>
-      <c r="L11" s="69" t="s">
+      <c r="G11" s="58">
+        <f t="shared" si="5"/>
+        <v>0.1920526098446918</v>
+      </c>
+      <c r="H11" s="58">
+        <f t="shared" si="6"/>
+        <v>1.8772920543665441E-2</v>
+      </c>
+      <c r="L11" s="65" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="M12" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="69"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="L13" s="70" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="M12" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="73"/>
-      <c r="S12" s="73"/>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="L13" s="74" t="s">
-        <v>52</v>
-      </c>
-      <c r="M13" s="68">
+      <c r="M13" s="64">
         <v>0</v>
       </c>
-      <c r="N13" s="68">
+      <c r="N13" s="64">
         <v>1</v>
       </c>
-      <c r="O13" s="68">
+      <c r="O13" s="64">
         <v>2</v>
       </c>
-      <c r="P13" s="68">
+      <c r="P13" s="64">
         <v>3</v>
       </c>
-      <c r="Q13" s="68">
+      <c r="Q13" s="64">
         <v>4</v>
       </c>
-      <c r="R13" s="68">
+      <c r="R13" s="64">
         <v>5</v>
       </c>
-      <c r="S13" s="68">
+      <c r="S13" s="64">
         <v>6</v>
       </c>
     </row>
@@ -2501,141 +2965,141 @@
       <c r="E14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="70" t="s">
+      <c r="K14" s="66" t="s">
         <v>30</v>
       </c>
       <c r="L14" s="1">
         <v>0</v>
       </c>
-      <c r="M14" s="56">
+      <c r="M14" s="52">
         <f>L3*$M$3</f>
-        <v>2.2449909413408756E-2</v>
-      </c>
-      <c r="N14" s="56">
+        <v>1.0174875226244915E-2</v>
+      </c>
+      <c r="N14" s="52">
         <f>L3*$M$4</f>
-        <v>3.4637003094973508E-2</v>
-      </c>
-      <c r="O14" s="56">
+        <v>1.9062317260597619E-2</v>
+      </c>
+      <c r="O14" s="52">
         <f>L3*$M$5</f>
-        <v>2.6719973816122428E-2</v>
-      </c>
-      <c r="P14" s="56">
+        <v>1.7856333923702672E-2</v>
+      </c>
+      <c r="P14" s="52">
         <f>L3*$M$6</f>
-        <v>1.3741700819720105E-2</v>
-      </c>
-      <c r="Q14" s="56">
+        <v>1.1151098327863301E-2</v>
+      </c>
+      <c r="Q14" s="52">
         <f>L3*$M$7</f>
-        <v>5.3003703161777563E-3</v>
-      </c>
-      <c r="R14" s="56">
+        <v>5.2228103392747529E-3</v>
+      </c>
+      <c r="R14" s="52">
         <f>L3*$M$8</f>
-        <v>1.6355428404205648E-3</v>
-      </c>
-      <c r="S14" s="56">
+        <v>1.9569550577364174E-3</v>
+      </c>
+      <c r="S14" s="52">
         <f>L3*$M$9</f>
-        <v>4.2056815896528811E-4</v>
+        <v>6.1104923231361649E-4</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="51" t="s">
-        <v>17</v>
+      <c r="E15" s="47" t="s">
+        <v>64</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I15" s="4"/>
-      <c r="K15" s="71"/>
+      <c r="K15" s="67"/>
       <c r="L15" s="1">
         <v>1</v>
       </c>
-      <c r="M15" s="56">
-        <f t="shared" ref="M15:M20" si="9">L4*$M$3</f>
-        <v>5.0593375307264675E-2</v>
-      </c>
-      <c r="N15" s="56">
-        <f t="shared" ref="N15:N20" si="10">L4*$M$4</f>
-        <v>7.8058350474065508E-2</v>
-      </c>
-      <c r="O15" s="56">
-        <f t="shared" ref="O15:O20" si="11">L4*$M$5</f>
-        <v>6.0216441794279124E-2</v>
-      </c>
-      <c r="P15" s="56">
-        <f t="shared" ref="P15:P20" si="12">L4*$M$6</f>
-        <v>3.0968455779914972E-2</v>
-      </c>
-      <c r="Q15" s="56">
-        <f t="shared" ref="Q15:Q20" si="13">L4*$M$7</f>
-        <v>1.194497580082435E-2</v>
-      </c>
-      <c r="R15" s="56">
-        <f t="shared" ref="R15:R20" si="14">L4*$M$8</f>
-        <v>3.6858782471115136E-3</v>
-      </c>
-      <c r="S15" s="56">
-        <f t="shared" ref="S15:S20" si="15">L4*$M$9</f>
-        <v>9.4779726354296068E-4</v>
+      <c r="M15" s="52">
+        <f t="shared" ref="M15:M20" si="7">L4*$M$3</f>
+        <v>2.7843834200872927E-2</v>
+      </c>
+      <c r="N15" s="52">
+        <f t="shared" ref="N15:N20" si="8">L4*$M$4</f>
+        <v>5.2164571013063973E-2</v>
+      </c>
+      <c r="O15" s="52">
+        <f t="shared" ref="O15:O20" si="9">L4*$M$5</f>
+        <v>4.8864363459176274E-2</v>
+      </c>
+      <c r="P15" s="52">
+        <f t="shared" ref="P15:P20" si="10">L4*$M$6</f>
+        <v>3.0515296364301916E-2</v>
+      </c>
+      <c r="Q15" s="52">
+        <f t="shared" ref="Q15:Q20" si="11">L4*$M$7</f>
+        <v>1.4292368399198558E-2</v>
+      </c>
+      <c r="R15" s="52">
+        <f t="shared" ref="R15:R20" si="12">L4*$M$8</f>
+        <v>5.3552629348833777E-3</v>
+      </c>
+      <c r="S15" s="52">
+        <f t="shared" ref="S15:S20" si="13">L4*$M$9</f>
+        <v>1.6721535286472599E-3</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="1">
         <f>D25/7/D33</f>
-        <v>1.1559633027522935</v>
+        <v>1.4036697247706422</v>
       </c>
       <c r="E16" s="1">
         <f>G25/7/G33</f>
-        <v>1.1775700934579441</v>
+        <v>1.4299065420560748</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>30</v>
       </c>
       <c r="I16" s="3">
         <f>D16*D33*E17</f>
-        <v>0.66055045871559626</v>
-      </c>
-      <c r="K16" s="71"/>
+        <v>0.80209698558322406</v>
+      </c>
+      <c r="K16" s="67"/>
       <c r="L16" s="1">
         <v>2</v>
       </c>
-      <c r="M16" s="56">
+      <c r="M16" s="52">
+        <f t="shared" si="7"/>
+        <v>3.8097720402799538E-2</v>
+      </c>
+      <c r="N16" s="52">
+        <f t="shared" si="8"/>
+        <v>7.1374912917897909E-2</v>
+      </c>
+      <c r="O16" s="52">
         <f t="shared" si="9"/>
-        <v>5.7008907649598407E-2</v>
-      </c>
-      <c r="N16" s="56">
+        <v>6.6859357202683975E-2</v>
+      </c>
+      <c r="P16" s="52">
         <f t="shared" si="10"/>
-        <v>8.7956600373666122E-2</v>
-      </c>
-      <c r="O16" s="56">
+        <v>4.1752986334737341E-2</v>
+      </c>
+      <c r="Q16" s="52">
         <f t="shared" si="11"/>
-        <v>6.7852234573971021E-2</v>
-      </c>
-      <c r="P16" s="56">
+        <v>1.9555735436371888E-2</v>
+      </c>
+      <c r="R16" s="52">
         <f t="shared" si="12"/>
-        <v>3.4895434923756526E-2</v>
-      </c>
-      <c r="Q16" s="56">
+        <v>7.3274143390160782E-3</v>
+      </c>
+      <c r="S16" s="52">
         <f t="shared" si="13"/>
-        <v>1.345966775630609E-2</v>
-      </c>
-      <c r="R16" s="56">
-        <f t="shared" si="14"/>
-        <v>4.1532689076601648E-3</v>
-      </c>
-      <c r="S16" s="56">
-        <f t="shared" si="15"/>
-        <v>1.0679834333983283E-3</v>
+        <v>2.2879477425907361E-3</v>
       </c>
     </row>
     <row r="17" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2645,109 +3109,109 @@
       </c>
       <c r="D17" s="1">
         <f>D27/7/D35</f>
-        <v>1.0093457943925233</v>
+        <v>1.225634178905207</v>
       </c>
       <c r="E17" s="1">
         <f>G28/7/G35</f>
-        <v>0.66055045871559626</v>
+        <v>0.80209698558322406</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="51">
+      <c r="H17" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="47">
         <f>E16*D33*D17</f>
-        <v>1.0282120709232248</v>
-      </c>
-      <c r="K17" s="71"/>
+        <v>1.2485432289782015</v>
+      </c>
+      <c r="K17" s="67"/>
       <c r="L17" s="1">
         <v>3</v>
       </c>
-      <c r="M17" s="56">
+      <c r="M17" s="52">
+        <f t="shared" si="7"/>
+        <v>3.4751830259650666E-2</v>
+      </c>
+      <c r="N17" s="52">
+        <f t="shared" si="8"/>
+        <v>6.5106490159916958E-2</v>
+      </c>
+      <c r="O17" s="52">
         <f t="shared" si="9"/>
-        <v>4.2825311043358037E-2</v>
-      </c>
-      <c r="N17" s="56">
+        <v>6.0987508129391618E-2</v>
+      </c>
+      <c r="P17" s="52">
         <f t="shared" si="10"/>
-        <v>6.607333703832384E-2</v>
-      </c>
-      <c r="O17" s="56">
+        <v>3.808607650529354E-2</v>
+      </c>
+      <c r="Q17" s="52">
         <f t="shared" si="11"/>
-        <v>5.0970860000992685E-2</v>
-      </c>
-      <c r="P17" s="56">
+        <v>1.7838274608091575E-2</v>
+      </c>
+      <c r="R17" s="52">
         <f t="shared" si="12"/>
-        <v>2.6213585143367666E-2</v>
-      </c>
-      <c r="Q17" s="56">
+        <v>6.6838922817257411E-3</v>
+      </c>
+      <c r="S17" s="52">
         <f t="shared" si="13"/>
-        <v>1.0110954269584672E-2</v>
-      </c>
-      <c r="R17" s="56">
-        <f t="shared" si="14"/>
-        <v>3.1199516031861275E-3</v>
-      </c>
-      <c r="S17" s="56">
-        <f t="shared" si="15"/>
-        <v>8.0227326939071866E-4</v>
+        <v>2.0870112634776305E-3</v>
       </c>
     </row>
     <row r="18" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="1">
         <f>E25/7/E33</f>
-        <v>2.1645569620253164</v>
+        <v>2.6283905967450272</v>
       </c>
       <c r="E18" s="1">
         <f>H25/7/H33</f>
-        <v>1.2203389830508473</v>
+        <v>1.4818401937046004</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="67">
+      <c r="I18" s="63">
         <f>D18*E33*E19</f>
-        <v>1.5461121157323692</v>
-      </c>
-      <c r="K18" s="71"/>
+        <v>1.8774218548178765</v>
+      </c>
+      <c r="K18" s="67"/>
       <c r="L18" s="1">
         <v>4</v>
       </c>
-      <c r="M18" s="56">
+      <c r="M18" s="52">
+        <f t="shared" si="7"/>
+        <v>2.3774841912329227E-2</v>
+      </c>
+      <c r="N18" s="52">
+        <f t="shared" si="8"/>
+        <v>4.4541438521465776E-2</v>
+      </c>
+      <c r="O18" s="52">
         <f t="shared" si="9"/>
-        <v>2.4127903974668824E-2</v>
-      </c>
-      <c r="N18" s="56">
+        <v>4.1723510778271015E-2</v>
+      </c>
+      <c r="P18" s="52">
         <f t="shared" si="10"/>
-        <v>3.7225908989489048E-2</v>
-      </c>
-      <c r="O18" s="56">
+        <v>2.6055906730920265E-2</v>
+      </c>
+      <c r="Q18" s="52">
         <f t="shared" si="11"/>
-        <v>2.8717129791891557E-2</v>
-      </c>
-      <c r="P18" s="56">
+        <v>1.2203735907645313E-2</v>
+      </c>
+      <c r="R18" s="52">
         <f t="shared" si="12"/>
-        <v>1.4768809607258513E-2</v>
-      </c>
-      <c r="Q18" s="56">
+        <v>4.5726651278442439E-3</v>
+      </c>
+      <c r="S18" s="52">
         <f t="shared" si="13"/>
-        <v>5.6965408485139995E-3</v>
-      </c>
-      <c r="R18" s="56">
-        <f t="shared" si="14"/>
-        <v>1.7577897475414626E-3</v>
-      </c>
-      <c r="S18" s="56">
-        <f t="shared" si="15"/>
-        <v>4.5200307793923328E-4</v>
+        <v>1.4277913562452445E-3</v>
       </c>
     </row>
     <row r="19" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2757,109 +3221,109 @@
       </c>
       <c r="D19" s="1">
         <f>E27/7/E35</f>
-        <v>0.45762711864406774</v>
+        <v>0.5556900726392251</v>
       </c>
       <c r="E19" s="1">
         <f>(H28/7)/H35</f>
-        <v>0.569620253164557</v>
+        <v>0.6916817359855334</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="65">
+      <c r="H19" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="61">
         <f>E18*D33*D19</f>
-        <v>0.48311240612303513</v>
-      </c>
-      <c r="K19" s="71"/>
+        <v>0.58663649314939981</v>
+      </c>
+      <c r="K19" s="67"/>
       <c r="L19" s="1">
         <v>5</v>
       </c>
-      <c r="M19" s="56">
+      <c r="M19" s="52">
+        <f t="shared" si="7"/>
+        <v>1.301210563548438E-2</v>
+      </c>
+      <c r="N19" s="52">
+        <f t="shared" si="8"/>
+        <v>2.4377781578315633E-2</v>
+      </c>
+      <c r="O19" s="52">
         <f t="shared" si="9"/>
-        <v>1.0874984648614772E-2</v>
-      </c>
-      <c r="N19" s="56">
+        <v>2.2835513764177306E-2</v>
+      </c>
+      <c r="P19" s="52">
         <f t="shared" si="10"/>
-        <v>1.677854774357708E-2</v>
-      </c>
-      <c r="O19" s="56">
+        <v>1.4260545330282154E-2</v>
+      </c>
+      <c r="Q19" s="52">
         <f t="shared" si="11"/>
-        <v>1.2943451116473751E-2</v>
-      </c>
-      <c r="P19" s="56">
+        <v>6.6791737822443995E-3</v>
+      </c>
+      <c r="R19" s="52">
         <f t="shared" si="12"/>
-        <v>6.6566320027579276E-3</v>
-      </c>
-      <c r="Q19" s="56">
+        <v>2.5026455233062689E-3</v>
+      </c>
+      <c r="S19" s="52">
         <f t="shared" si="13"/>
-        <v>2.5675580582066298E-3</v>
-      </c>
-      <c r="R19" s="56">
-        <f t="shared" si="14"/>
-        <v>7.9227505796090295E-4</v>
-      </c>
-      <c r="S19" s="56">
-        <f t="shared" si="15"/>
-        <v>2.0372787204708933E-4</v>
+        <v>7.8143829605277428E-4</v>
       </c>
     </row>
     <row r="20" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="1">
         <f>F25/7/F33</f>
-        <v>1.752808988764045</v>
+        <v>2.1284109149277688</v>
       </c>
       <c r="E20" s="1">
         <f>I25/7/I33</f>
-        <v>1.2</v>
+        <v>1.4571428571428571</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="67">
+      <c r="I20" s="63">
         <f>D20*E21*F33</f>
-        <v>2.2536115569823436</v>
-      </c>
-      <c r="K20" s="72"/>
+        <v>2.7365283191928458</v>
+      </c>
+      <c r="K20" s="68"/>
       <c r="L20" s="1">
         <v>6</v>
       </c>
-      <c r="M20" s="56">
+      <c r="M20" s="52">
+        <f t="shared" si="7"/>
+        <v>5.9346659273053059E-3</v>
+      </c>
+      <c r="N20" s="52">
+        <f t="shared" si="8"/>
+        <v>1.1118414941359737E-2</v>
+      </c>
+      <c r="O20" s="52">
         <f t="shared" si="9"/>
-        <v>4.0846651810206363E-3</v>
-      </c>
-      <c r="N20" s="56">
+        <v>1.0415005016498205E-2</v>
+      </c>
+      <c r="P20" s="52">
         <f t="shared" si="10"/>
-        <v>6.3020548507175533E-3</v>
-      </c>
-      <c r="O20" s="56">
+        <v>6.5040643572417366E-3</v>
+      </c>
+      <c r="Q20" s="52">
         <f t="shared" si="11"/>
-        <v>4.8615851705535425E-3</v>
-      </c>
-      <c r="P20" s="56">
+        <v>3.0462913673203655E-3</v>
+      </c>
+      <c r="R20" s="52">
         <f t="shared" si="12"/>
-        <v>2.5002438019989647E-3</v>
-      </c>
-      <c r="Q20" s="56">
+        <v>1.1414267245714676E-3</v>
+      </c>
+      <c r="S20" s="52">
         <f t="shared" si="13"/>
-        <v>9.643797521996008E-4</v>
-      </c>
-      <c r="R20" s="56">
-        <f t="shared" si="14"/>
-        <v>2.9758003782159111E-4</v>
-      </c>
-      <c r="S20" s="56">
-        <f t="shared" si="15"/>
-        <v>7.6520581154123434E-5</v>
+        <v>3.5640467114170341E-4</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.3">
@@ -2869,47 +3333,47 @@
       </c>
       <c r="D21" s="1">
         <f>F27/7/F35</f>
-        <v>0.72</v>
+        <v>0.87428571428571433</v>
       </c>
       <c r="E21" s="1">
         <f>(I28/7)/I35</f>
-        <v>0.6067415730337079</v>
+        <v>0.73675762439807391</v>
       </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="65">
+      <c r="H21" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="61">
         <f>E20*D21*I33</f>
-        <v>1.5428571428571429</v>
+        <v>1.8734693877551021</v>
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="39" t="s">
+      <c r="F24" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="39" t="s">
+      <c r="G24" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="39" t="s">
+      <c r="H24" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="39" t="s">
+      <c r="I24" s="36" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B25" s="47" t="s">
-        <v>46</v>
+      <c r="B25" s="44" t="s">
+        <v>44</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>19</v>
@@ -2934,7 +3398,7 @@
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B26" s="47"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="22" t="s">
         <v>17</v>
       </c>
@@ -2958,176 +3422,176 @@
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B27" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="34" t="s">
+      <c r="B27" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="34">
+      <c r="D27" s="32">
         <v>6</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E27" s="32">
         <v>3</v>
       </c>
-      <c r="F27" s="34">
+      <c r="F27" s="32">
         <v>9</v>
       </c>
-      <c r="G27" s="34">
+      <c r="G27" s="32">
         <v>9</v>
       </c>
-      <c r="H27" s="34">
+      <c r="H27" s="32">
         <v>19</v>
       </c>
-      <c r="I27" s="34">
+      <c r="I27" s="32">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B28" s="44"/>
-      <c r="C28" s="34" t="s">
+      <c r="B28" s="41"/>
+      <c r="C28" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="34">
+      <c r="D28" s="32">
         <v>3</v>
       </c>
-      <c r="E28" s="34">
+      <c r="E28" s="32">
         <v>8</v>
       </c>
-      <c r="F28" s="34">
+      <c r="F28" s="32">
         <v>11</v>
       </c>
-      <c r="G28" s="34">
+      <c r="G28" s="32">
         <v>4</v>
       </c>
-      <c r="H28" s="34">
+      <c r="H28" s="32">
         <v>5</v>
       </c>
-      <c r="I28" s="34">
+      <c r="I28" s="32">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="39" t="s">
+      <c r="D31" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="39" t="s">
+      <c r="E31" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="39" t="s">
+      <c r="F31" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="39" t="s">
+      <c r="G31" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="H31" s="39" t="s">
+      <c r="H31" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="I31" s="39" t="s">
+      <c r="I31" s="36" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B32" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="40">
+      <c r="B32" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="37">
         <v>109</v>
       </c>
-      <c r="E32" s="40">
+      <c r="E32" s="37">
         <v>158</v>
       </c>
-      <c r="F32" s="40">
+      <c r="F32" s="37">
         <v>267</v>
       </c>
-      <c r="G32" s="40">
+      <c r="G32" s="37">
         <v>107</v>
       </c>
-      <c r="H32" s="40">
+      <c r="H32" s="37">
         <v>118</v>
       </c>
-      <c r="I32" s="41">
+      <c r="I32" s="38">
         <v>225</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="49"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="42">
-        <v>0.86507936507936511</v>
-      </c>
-      <c r="E33" s="42">
-        <v>1.253968253968254</v>
-      </c>
-      <c r="F33" s="42">
-        <v>2.1190476190476191</v>
-      </c>
-      <c r="G33" s="42">
-        <v>0.84920634920634919</v>
-      </c>
-      <c r="H33" s="42">
-        <v>0.93650793650793651</v>
-      </c>
-      <c r="I33" s="43">
-        <v>1.7857142857142858</v>
+        <v>34</v>
+      </c>
+      <c r="D33" s="39">
+        <v>0.71241830065359479</v>
+      </c>
+      <c r="E33" s="39">
+        <v>1.0326797385620916</v>
+      </c>
+      <c r="F33" s="39">
+        <v>1.7450980392156863</v>
+      </c>
+      <c r="G33" s="39">
+        <v>0.69934640522875813</v>
+      </c>
+      <c r="H33" s="39">
+        <v>0.77124183006535951</v>
+      </c>
+      <c r="I33" s="40">
+        <v>1.4705882352941178</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="31">
+      <c r="B34" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="29">
         <v>107</v>
       </c>
-      <c r="E34" s="31">
+      <c r="E34" s="29">
         <v>118</v>
       </c>
-      <c r="F34" s="31">
+      <c r="F34" s="29">
         <v>225</v>
       </c>
-      <c r="G34" s="31">
+      <c r="G34" s="29">
         <v>109</v>
       </c>
-      <c r="H34" s="31">
+      <c r="H34" s="29">
         <v>158</v>
       </c>
-      <c r="I34" s="32">
+      <c r="I34" s="30">
         <v>267</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="46"/>
-      <c r="C35" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="37">
-        <v>0.84920634920634919</v>
-      </c>
-      <c r="E35" s="37">
-        <v>0.93650793650793651</v>
-      </c>
-      <c r="F35" s="37">
-        <v>1.7857142857142858</v>
-      </c>
-      <c r="G35" s="37">
-        <v>0.86507936507936511</v>
-      </c>
-      <c r="H35" s="37">
-        <v>1.253968253968254</v>
-      </c>
-      <c r="I35" s="38">
-        <v>2.1190476190476191</v>
+      <c r="B35" s="43"/>
+      <c r="C35" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="34">
+        <v>0.69934640522875813</v>
+      </c>
+      <c r="E35" s="34">
+        <v>0.77124183006535951</v>
+      </c>
+      <c r="F35" s="34">
+        <v>1.4705882352941178</v>
+      </c>
+      <c r="G35" s="34">
+        <v>0.71241830065359479</v>
+      </c>
+      <c r="H35" s="34">
+        <v>1.0326797385620916</v>
+      </c>
+      <c r="I35" s="35">
+        <v>1.7450980392156863</v>
       </c>
     </row>
   </sheetData>
@@ -3157,502 +3621,554 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9145AB17-87E9-453E-914D-E7474CEE1695}">
-  <dimension ref="C1:K25"/>
+  <dimension ref="C2:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="26.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="D1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C2" s="11" t="s">
+    <row r="2" spans="3:16" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="N2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" s="76" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="E3" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="76" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C3" s="1">
+      <c r="G3" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="1">
+      <c r="O3" s="79">
+        <v>0.29829755175788064</v>
+      </c>
+      <c r="P3" s="78">
+        <v>0.45253314211590395</v>
+      </c>
+    </row>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
         <v>0.10501925580887098</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E4" s="1">
         <v>0.21376945818647108</v>
       </c>
-      <c r="F3" s="1">
-        <f>D3/SUM($D$3:$D$9)</f>
+      <c r="F4" s="1">
+        <f>D4/SUM($D$4:$D$10)</f>
         <v>0.10591325621338919</v>
       </c>
-      <c r="G3" s="1">
-        <f>E3/SUM($E$3:$E$9)</f>
+      <c r="G4" s="1">
+        <f>E4/SUM($E$4:$E$10)</f>
         <v>0.2140021425372228</v>
       </c>
-    </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C4" s="1">
+      <c r="N4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
+      <c r="O4" s="79">
+        <v>0.37243738846807645</v>
+      </c>
+      <c r="P4" s="78">
+        <v>0.36297546916767126</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
         <v>0.23667260859655675</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E5" s="1">
         <v>0.32981573548769827</v>
       </c>
-      <c r="F4" s="1">
-        <f t="shared" ref="F4:F9" si="0">D4/SUM($D$3:$D$9)</f>
+      <c r="F5" s="1">
+        <f t="shared" ref="F5:F10" si="0">D5/SUM($D$4:$D$10)</f>
         <v>0.23868733824012589</v>
       </c>
-      <c r="G4" s="1">
-        <f t="shared" ref="G4:G9" si="1">E4/SUM($E$3:$E$9)</f>
+      <c r="G5" s="1">
+        <f t="shared" ref="G5:G10" si="1">E5/SUM($E$4:$E$10)</f>
         <v>0.33017473420028665</v>
       </c>
-    </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C5" s="1">
+      <c r="N5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="O5" s="79">
+        <v>0.23250208979507053</v>
+      </c>
+      <c r="P5" s="78">
+        <v>0.14557076483002279</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
         <v>0.26668406297717956</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E6" s="1">
         <v>0.25442928166193873</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F6" s="1">
         <f t="shared" si="0"/>
         <v>0.26895427198165073</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G6" s="1">
         <f t="shared" si="1"/>
         <v>0.25470622352593547</v>
       </c>
-    </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C6" s="1">
+      <c r="N6" s="49">
         <v>3</v>
       </c>
-      <c r="D6" s="1">
+      <c r="O6" s="80">
+        <v>9.6762969978972366E-2</v>
+      </c>
+      <c r="P6" s="82">
+        <v>3.8920623886401905E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
         <v>0.20033409546279302</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E7" s="1">
         <v>0.13084934485471134</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F7" s="1">
         <f t="shared" si="0"/>
         <v>0.20203948521254023</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G7" s="1">
         <f t="shared" si="1"/>
         <v>0.13099177209905252</v>
       </c>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C7" s="1">
+      <c r="N7" s="48">
+        <v>0</v>
+      </c>
+      <c r="O7" s="77">
+        <v>0.17413491420467697</v>
+      </c>
+      <c r="P7" s="81">
+        <v>0.55792505498561373</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C8" s="1">
         <v>4</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="1">
         <v>0.11286880819813865</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E8" s="1">
         <v>5.0470461586817242E-2</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F8" s="1">
         <f t="shared" si="0"/>
         <v>0.11382962971043603</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G8" s="1">
         <f t="shared" si="1"/>
         <v>5.0525397809634554E-2</v>
       </c>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C8" s="1">
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="78">
+        <v>0.32692469361469645</v>
+      </c>
+      <c r="P8" s="79">
+        <v>0.32729919769694643</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C9" s="1">
         <v>5</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D9" s="1">
         <v>5.0872490115629727E-2</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E9" s="1">
         <v>1.5573742432503606E-2</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F9" s="1">
         <f t="shared" si="0"/>
         <v>5.1305553808491854E-2</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G9" s="1">
         <f t="shared" si="1"/>
         <v>1.5590694181258661E-2</v>
       </c>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C9" s="1">
+      <c r="N9" s="1">
+        <v>2</v>
+      </c>
+      <c r="O9" s="78">
+        <v>0.30688778233593478</v>
+      </c>
+      <c r="P9" s="79">
+        <v>9.6002826773774377E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C10" s="1">
         <v>6</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D10" s="1">
         <v>1.9107805276175529E-2</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E10" s="1">
         <v>4.0046766255009275E-3</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F10" s="1">
         <f t="shared" si="0"/>
         <v>1.927046483336612E-2</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G10" s="1">
         <f t="shared" si="1"/>
         <v>4.0090356466093704E-3</v>
       </c>
-    </row>
-    <row r="11" spans="3:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="D11" s="69" t="s">
+      <c r="N10" s="1">
+        <v>3</v>
+      </c>
+      <c r="O10" s="78">
+        <v>0.1920526098446918</v>
+      </c>
+      <c r="P10" s="79">
+        <v>1.8772920543665441E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N11" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="O11" s="1">
+        <f>1*(($N4*O4)+($N5*O5)+($N6*O6))</f>
+        <v>1.1277304779951345</v>
+      </c>
+      <c r="P11" s="1">
+        <f>1*(+($N8*P8)+($N9*P9)+($N10*P10))</f>
+        <v>0.57562361287549157</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16" ht="29.4" x14ac:dyDescent="0.35">
+      <c r="D12" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="N12" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="O12" s="1">
+        <f>1*(+($N8*O8)+($N9*O9)+($N10*O10))</f>
+        <v>1.5168580878206415</v>
+      </c>
+      <c r="P12" s="1">
+        <f>1*(($N4*P4)+($N5*P5)+($N6*P6))</f>
+        <v>0.77087887048692261</v>
+      </c>
+    </row>
+    <row r="13" spans="3:16" ht="29.4" x14ac:dyDescent="0.35">
+      <c r="D13" s="65"/>
+      <c r="N13" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="O13" s="1">
+        <f>O12+O11</f>
+        <v>2.6445885658157762</v>
+      </c>
+      <c r="P13" s="1">
+        <f>P12+P11</f>
+        <v>1.3465024833624142</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16" ht="83.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="70" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E12" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="D13" s="74" t="s">
+      <c r="E15" s="11">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1</v>
+      </c>
+      <c r="G15" s="11">
+        <v>2</v>
+      </c>
+      <c r="H15" s="11">
+        <v>3</v>
+      </c>
+      <c r="I15" s="11">
+        <v>4</v>
+      </c>
+      <c r="J15" s="11">
+        <v>5</v>
+      </c>
+      <c r="K15" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="11">
+        <v>0</v>
+      </c>
+      <c r="E16" s="52">
+        <v>1.0174875226244915E-2</v>
+      </c>
+      <c r="F16" s="74">
+        <v>1.9062317260597619E-2</v>
+      </c>
+      <c r="G16" s="74">
+        <v>1.7856333923702672E-2</v>
+      </c>
+      <c r="H16" s="74">
+        <v>1.1151098327863301E-2</v>
+      </c>
+      <c r="I16" s="74">
+        <v>5.2228103392747529E-3</v>
+      </c>
+      <c r="J16" s="74">
+        <v>1.9569550577364174E-3</v>
+      </c>
+      <c r="K16" s="74">
+        <v>6.1104923231361649E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="11">
+        <v>1</v>
+      </c>
+      <c r="E17" s="73">
+        <v>2.7843834200872927E-2</v>
+      </c>
+      <c r="F17" s="52">
+        <v>5.2164571013063973E-2</v>
+      </c>
+      <c r="G17" s="75">
+        <v>4.8864363459176274E-2</v>
+      </c>
+      <c r="H17" s="75">
+        <v>3.0515296364301916E-2</v>
+      </c>
+      <c r="I17" s="75">
+        <v>1.4292368399198558E-2</v>
+      </c>
+      <c r="J17" s="75">
+        <v>5.3552629348833777E-3</v>
+      </c>
+      <c r="K17" s="75">
+        <v>1.6721535286472599E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="11">
+        <v>2</v>
+      </c>
+      <c r="E18" s="73">
+        <v>3.8097720402799538E-2</v>
+      </c>
+      <c r="F18" s="73">
+        <v>7.1374912917897909E-2</v>
+      </c>
+      <c r="G18" s="52">
+        <v>6.6859357202683975E-2</v>
+      </c>
+      <c r="H18" s="75">
+        <v>4.1752986334737341E-2</v>
+      </c>
+      <c r="I18" s="75">
+        <v>1.9555735436371888E-2</v>
+      </c>
+      <c r="J18" s="75">
+        <v>7.3274143390160782E-3</v>
+      </c>
+      <c r="K18" s="75">
+        <v>2.2879477425907361E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="11">
+        <v>3</v>
+      </c>
+      <c r="E19" s="73">
+        <v>3.4751830259650666E-2</v>
+      </c>
+      <c r="F19" s="73">
+        <v>6.5106490159916958E-2</v>
+      </c>
+      <c r="G19" s="73">
+        <v>6.0987508129391618E-2</v>
+      </c>
+      <c r="H19" s="52">
+        <v>3.808607650529354E-2</v>
+      </c>
+      <c r="I19" s="75">
+        <v>1.7838274608091575E-2</v>
+      </c>
+      <c r="J19" s="75">
+        <v>6.6838922817257411E-3</v>
+      </c>
+      <c r="K19" s="75">
+        <v>2.0870112634776305E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="11">
+        <v>4</v>
+      </c>
+      <c r="E20" s="73">
+        <v>2.3774841912329227E-2</v>
+      </c>
+      <c r="F20" s="73">
+        <v>4.4541438521465776E-2</v>
+      </c>
+      <c r="G20" s="73">
+        <v>4.1723510778271015E-2</v>
+      </c>
+      <c r="H20" s="73">
+        <v>2.6055906730920265E-2</v>
+      </c>
+      <c r="I20" s="52">
+        <v>1.2203735907645313E-2</v>
+      </c>
+      <c r="J20" s="75">
+        <v>4.5726651278442439E-3</v>
+      </c>
+      <c r="K20" s="75">
+        <v>1.4277913562452445E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="11">
+        <v>5</v>
+      </c>
+      <c r="E21" s="73">
+        <v>1.301210563548438E-2</v>
+      </c>
+      <c r="F21" s="73">
+        <v>2.4377781578315633E-2</v>
+      </c>
+      <c r="G21" s="73">
+        <v>2.2835513764177306E-2</v>
+      </c>
+      <c r="H21" s="73">
+        <v>1.4260545330282154E-2</v>
+      </c>
+      <c r="I21" s="73">
+        <v>6.6791737822443995E-3</v>
+      </c>
+      <c r="J21" s="52">
+        <v>2.5026455233062689E-3</v>
+      </c>
+      <c r="K21" s="75">
+        <v>7.8143829605277428E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="11">
+        <v>6</v>
+      </c>
+      <c r="E22" s="73">
+        <v>5.9346659273053059E-3</v>
+      </c>
+      <c r="F22" s="73">
+        <v>1.1118414941359737E-2</v>
+      </c>
+      <c r="G22" s="73">
+        <v>1.0415005016498205E-2</v>
+      </c>
+      <c r="H22" s="73">
+        <v>6.5040643572417366E-3</v>
+      </c>
+      <c r="I22" s="73">
+        <v>3.0462913673203655E-3</v>
+      </c>
+      <c r="J22" s="73">
+        <v>1.1414267245714676E-3</v>
+      </c>
+      <c r="K22" s="52">
+        <v>3.5640467114170341E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D24" s="71" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C25" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="11">
-        <v>0</v>
-      </c>
-      <c r="F13" s="11">
-        <v>1</v>
-      </c>
-      <c r="G13" s="11">
-        <v>2</v>
-      </c>
-      <c r="H13" s="11">
-        <v>3</v>
-      </c>
-      <c r="I13" s="11">
-        <v>4</v>
-      </c>
-      <c r="J13" s="11">
-        <v>5</v>
-      </c>
-      <c r="K13" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C14" s="77" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="56">
-        <f>F3*$G$3</f>
-        <v>2.2665663752759111E-2</v>
-      </c>
-      <c r="F14" s="81">
-        <f>F3*$G$4</f>
-        <v>3.4969881218542637E-2</v>
-      </c>
-      <c r="G14" s="81">
-        <f>F3*$G$5</f>
-        <v>2.6976765511447183E-2</v>
-      </c>
-      <c r="H14" s="81">
-        <f>F3*$G$6</f>
-        <v>1.3873765120172835E-2</v>
-      </c>
-      <c r="I14" s="81">
-        <f>F3*$G$7</f>
-        <v>5.3513094034952375E-3</v>
-      </c>
-      <c r="J14" s="81">
-        <f>F3*$G$8</f>
-        <v>1.6512611873642446E-3</v>
-      </c>
-      <c r="K14" s="81">
-        <f>F3*$G$9</f>
-        <v>4.2461001960794864E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C15" s="78"/>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="80">
-        <f>F4*$G$3</f>
-        <v>5.1079601779893728E-2</v>
-      </c>
-      <c r="F15" s="56">
-        <f>F4*$G$4</f>
-        <v>7.8808528460407479E-2</v>
-      </c>
-      <c r="G15" s="82">
-        <f>F4*$G$5</f>
-        <v>6.0795150526600068E-2</v>
-      </c>
-      <c r="H15" s="82">
-        <f>F4*$G$6</f>
-        <v>3.1266077413680038E-2</v>
-      </c>
-      <c r="I15" s="82">
-        <f>F4*$G$7</f>
-        <v>1.2059772716705159E-2</v>
-      </c>
-      <c r="J15" s="82">
-        <f>F4*$G$8</f>
-        <v>3.7213012954404488E-3</v>
-      </c>
-      <c r="K15" s="82">
-        <f>F4*$G$9</f>
-        <v>9.5690604739897265E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C16" s="78"/>
-      <c r="D16" s="1">
-        <v>2</v>
-      </c>
-      <c r="E16" s="80">
-        <f>F5*$G$3</f>
-        <v>5.7556790448612206E-2</v>
-      </c>
-      <c r="F16" s="80">
-        <f>F5*$G$4</f>
-        <v>8.8801905263573136E-2</v>
-      </c>
-      <c r="G16" s="56">
-        <f>F5*$G$5</f>
-        <v>6.8504326917613573E-2</v>
-      </c>
-      <c r="H16" s="82">
-        <f>F5*$G$6</f>
-        <v>3.5230796700486983E-2</v>
-      </c>
-      <c r="I16" s="82">
-        <f>F5*$G$7</f>
-        <v>1.3589021584473551E-2</v>
-      </c>
-      <c r="J16" s="82">
-        <f>F5*$G$8</f>
-        <v>4.1931838032089816E-3</v>
-      </c>
-      <c r="K16" s="82">
-        <f>F5*$G$9</f>
-        <v>1.0782472636823096E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C17" s="78"/>
-      <c r="D17" s="1">
-        <v>3</v>
-      </c>
-      <c r="E17" s="80">
-        <f>F6*$G$3</f>
-        <v>4.3236882712601149E-2</v>
-      </c>
-      <c r="F17" s="80">
-        <f>F6*$G$4</f>
-        <v>6.6708333328013208E-2</v>
-      </c>
-      <c r="G17" s="80">
-        <f>F6*$G$5</f>
-        <v>5.1460714281610205E-2</v>
-      </c>
-      <c r="H17" s="56">
-        <f>F6*$G$6</f>
-        <v>2.6465510201970962E-2</v>
-      </c>
-      <c r="I17" s="82">
-        <f>F6*$G$7</f>
-        <v>1.0208125363617373E-2</v>
-      </c>
-      <c r="J17" s="82">
-        <f>F6*$G$8</f>
-        <v>3.1499358264876461E-3</v>
-      </c>
-      <c r="K17" s="82">
-        <f>F6*$G$9</f>
-        <v>8.0998349823968054E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C18" s="78"/>
-      <c r="D18" s="1">
-        <v>4</v>
-      </c>
-      <c r="E18" s="80">
-        <f>F7*$G$3</f>
-        <v>2.4359784642252021E-2</v>
-      </c>
-      <c r="F18" s="80">
-        <f>F7*$G$4</f>
-        <v>3.7583667733760269E-2</v>
-      </c>
-      <c r="G18" s="80">
-        <f>F7*$G$5</f>
-        <v>2.8993115108900784E-2</v>
-      </c>
-      <c r="H18" s="80">
-        <f>F7*$G$6</f>
-        <v>1.4910744913148975E-2</v>
-      </c>
-      <c r="I18" s="56">
-        <f>F7*$G$7</f>
-        <v>5.7512873236431773E-3</v>
-      </c>
-      <c r="J18" s="82">
-        <f>F7*$G$8</f>
-        <v>1.774682945581323E-3</v>
-      </c>
-      <c r="K18" s="82">
-        <f>F7*$G$9</f>
-        <v>4.5634704314948313E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C19" s="78"/>
-      <c r="D19" s="1">
-        <v>5</v>
-      </c>
-      <c r="E19" s="80">
-        <f>F8*$G$3</f>
-        <v>1.0979498439076028E-2</v>
-      </c>
-      <c r="F19" s="80">
-        <f>F8*$G$4</f>
-        <v>1.6939797591717303E-2</v>
-      </c>
-      <c r="G19" s="80">
-        <f>F8*$G$5</f>
-        <v>1.3067843856467636E-2</v>
-      </c>
-      <c r="H19" s="80">
-        <f>F8*$G$6</f>
-        <v>6.7206054118976412E-3</v>
-      </c>
-      <c r="I19" s="80">
-        <f>F8*$G$7</f>
-        <v>2.592233516017662E-3</v>
-      </c>
-      <c r="J19" s="56">
-        <f>F8*$G$8</f>
-        <v>7.9988919922830705E-4</v>
-      </c>
-      <c r="K19" s="82">
-        <f>F8*$G$9</f>
-        <v>2.05685794087279E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C20" s="79"/>
-      <c r="D20" s="1">
-        <v>6</v>
-      </c>
-      <c r="E20" s="80">
-        <f>F9*$G$3</f>
-        <v>4.1239207620285562E-3</v>
-      </c>
-      <c r="F20" s="80">
-        <f>F9*$G$4</f>
-        <v>6.3626206042726296E-3</v>
-      </c>
-      <c r="G20" s="80">
-        <f>F9*$G$5</f>
-        <v>4.9083073232960295E-3</v>
-      </c>
-      <c r="H20" s="80">
-        <f>F9*$G$6</f>
-        <v>2.5242723376951008E-3</v>
-      </c>
-      <c r="I20" s="80">
-        <f>F9*$G$7</f>
-        <v>9.7364790168239629E-4</v>
-      </c>
-      <c r="J20" s="80">
-        <f>F9*$G$8</f>
-        <v>3.0043992394771082E-4</v>
-      </c>
-      <c r="K20" s="56">
-        <f>F9*$G$9</f>
-        <v>7.7255980443697073E-5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="D22" s="75" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C23" s="75" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="62">
-        <f>SUM(E15:E20,F16:F20,G17:G20,H18:H20,I19:I20,J20)</f>
-        <v>0.53418472788046434</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C24" s="75" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="62">
-        <f>SUM(F14:K14,G15:K15,H16:K16,I17:K17,J18:K18,K19)</f>
-        <v>0.26274281028346941</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C25" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="62">
-        <f>SUM(E14,F15,G16,H17,I18,J19,K20)</f>
-        <v>0.20307246183606631</v>
+      <c r="D25" s="58">
+        <f>SUM(E17:E22,F18:F22,G19:G22,H20:H22,I21:I22,J22)</f>
+        <v>0.55358298243831661</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C26" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="58">
+        <f>SUM(F16:K16,G17:K17,H18:K18,I19:K19,J20:K20,K21)</f>
+        <v>0.26087516561384899</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C27" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="58">
+        <f>SUM(E16,F17,G18,H19,I20,J21,K22)</f>
+        <v>0.18234766604937969</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="E12:K12"/>
-    <mergeCell ref="C14:C20"/>
+  <mergeCells count="2">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3665,7 +4181,7 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:P8"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3679,21 +4195,21 @@
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="E2" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
       <c r="J2" s="17"/>
-      <c r="K2" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="29"/>
+      <c r="K2" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="27"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D3" s="12" t="s">
@@ -3717,26 +4233,29 @@
       <c r="J3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="L3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="31" t="s">
+      <c r="M3" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="31" t="s">
+      <c r="N3" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="31" t="s">
+      <c r="O3" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="32" t="s">
+      <c r="P3" s="30" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
       <c r="D4" s="13" t="s">
         <v>20</v>
       </c>
@@ -3758,28 +4277,28 @@
       <c r="J4" s="23">
         <v>12</v>
       </c>
-      <c r="K4" s="34">
+      <c r="K4" s="32">
         <v>4</v>
       </c>
-      <c r="L4" s="34">
+      <c r="L4" s="32">
         <v>7</v>
       </c>
-      <c r="M4" s="35">
+      <c r="M4" s="33">
         <v>11</v>
       </c>
-      <c r="N4" s="33">
+      <c r="N4" s="31">
         <v>8</v>
       </c>
-      <c r="O4" s="34">
+      <c r="O4" s="32">
         <v>8</v>
       </c>
-      <c r="P4" s="34">
+      <c r="P4" s="32">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>1</v>
@@ -3802,28 +4321,28 @@
       <c r="J5" s="23">
         <v>18</v>
       </c>
-      <c r="K5" s="34">
+      <c r="K5" s="32">
         <v>6</v>
       </c>
-      <c r="L5" s="34">
+      <c r="L5" s="32">
         <v>3</v>
       </c>
-      <c r="M5" s="35">
+      <c r="M5" s="33">
         <v>9</v>
       </c>
-      <c r="N5" s="33">
+      <c r="N5" s="31">
         <v>9</v>
       </c>
-      <c r="O5" s="34">
+      <c r="O5" s="32">
         <v>19</v>
       </c>
-      <c r="P5" s="34">
+      <c r="P5" s="32">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>19</v>
@@ -3846,22 +4365,22 @@
       <c r="J6" s="23">
         <v>15</v>
       </c>
-      <c r="K6" s="34">
+      <c r="K6" s="32">
         <v>5</v>
       </c>
-      <c r="L6" s="34">
+      <c r="L6" s="32">
         <v>4</v>
       </c>
-      <c r="M6" s="35">
+      <c r="M6" s="33">
         <v>9</v>
       </c>
-      <c r="N6" s="33">
+      <c r="N6" s="31">
         <v>7</v>
       </c>
-      <c r="O6" s="34">
+      <c r="O6" s="32">
         <v>19</v>
       </c>
-      <c r="P6" s="34">
+      <c r="P6" s="32">
         <v>26</v>
       </c>
     </row>
@@ -3887,22 +4406,22 @@
       <c r="J7" s="23">
         <v>8</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="32">
         <v>7</v>
       </c>
-      <c r="L7" s="34">
+      <c r="L7" s="32">
         <v>7</v>
       </c>
-      <c r="M7" s="35">
+      <c r="M7" s="33">
         <v>14</v>
       </c>
-      <c r="N7" s="33">
+      <c r="N7" s="31">
         <v>8</v>
       </c>
-      <c r="O7" s="34">
+      <c r="O7" s="32">
         <v>11</v>
       </c>
-      <c r="P7" s="34">
+      <c r="P7" s="32">
         <v>19</v>
       </c>
     </row>
@@ -3928,22 +4447,22 @@
       <c r="J8" s="23">
         <v>10</v>
       </c>
-      <c r="K8" s="34">
+      <c r="K8" s="32">
         <v>3</v>
       </c>
-      <c r="L8" s="34">
+      <c r="L8" s="32">
         <v>8</v>
       </c>
-      <c r="M8" s="35">
+      <c r="M8" s="33">
         <v>11</v>
       </c>
-      <c r="N8" s="33">
+      <c r="N8" s="31">
         <v>4</v>
       </c>
-      <c r="O8" s="34">
+      <c r="O8" s="32">
         <v>5</v>
       </c>
-      <c r="P8" s="34">
+      <c r="P8" s="32">
         <v>9</v>
       </c>
     </row>
@@ -3969,22 +4488,22 @@
       <c r="J9" s="23">
         <v>10</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="32">
         <v>9</v>
       </c>
-      <c r="L9" s="34">
+      <c r="L9" s="32">
         <v>5</v>
       </c>
-      <c r="M9" s="35">
+      <c r="M9" s="33">
         <v>14</v>
       </c>
-      <c r="N9" s="33">
+      <c r="N9" s="31">
         <v>4</v>
       </c>
-      <c r="O9" s="34">
+      <c r="O9" s="32">
         <v>4</v>
       </c>
-      <c r="P9" s="34">
+      <c r="P9" s="32">
         <v>8</v>
       </c>
     </row>
@@ -4010,22 +4529,22 @@
       <c r="J10" s="23">
         <v>15</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10" s="32">
         <v>3</v>
       </c>
-      <c r="L10" s="34">
+      <c r="L10" s="32">
         <v>6</v>
       </c>
-      <c r="M10" s="35">
+      <c r="M10" s="33">
         <v>9</v>
       </c>
-      <c r="N10" s="33">
+      <c r="N10" s="31">
         <v>3</v>
       </c>
-      <c r="O10" s="34">
+      <c r="O10" s="32">
         <v>9</v>
       </c>
-      <c r="P10" s="34">
+      <c r="P10" s="32">
         <v>12</v>
       </c>
     </row>
@@ -4051,22 +4570,22 @@
       <c r="J11" s="23">
         <v>11</v>
       </c>
-      <c r="K11" s="34">
+      <c r="K11" s="32">
         <v>8</v>
       </c>
-      <c r="L11" s="34">
+      <c r="L11" s="32">
         <v>6</v>
       </c>
-      <c r="M11" s="35">
+      <c r="M11" s="33">
         <v>14</v>
       </c>
-      <c r="N11" s="33">
+      <c r="N11" s="31">
         <v>5</v>
       </c>
-      <c r="O11" s="34">
+      <c r="O11" s="32">
         <v>6</v>
       </c>
-      <c r="P11" s="34">
+      <c r="P11" s="32">
         <v>11</v>
       </c>
     </row>
@@ -4092,22 +4611,22 @@
       <c r="J12" s="23">
         <v>11</v>
       </c>
-      <c r="K12" s="34">
+      <c r="K12" s="32">
         <v>7</v>
       </c>
-      <c r="L12" s="34">
+      <c r="L12" s="32">
         <v>12</v>
       </c>
-      <c r="M12" s="35">
+      <c r="M12" s="33">
         <v>19</v>
       </c>
-      <c r="N12" s="33">
+      <c r="N12" s="31">
         <v>5</v>
       </c>
-      <c r="O12" s="34">
+      <c r="O12" s="32">
         <v>9</v>
       </c>
-      <c r="P12" s="34">
+      <c r="P12" s="32">
         <v>14</v>
       </c>
     </row>
@@ -4133,22 +4652,22 @@
       <c r="J13" s="23">
         <v>11</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13" s="32">
         <v>6</v>
       </c>
-      <c r="L13" s="34">
+      <c r="L13" s="32">
         <v>4</v>
       </c>
-      <c r="M13" s="35">
+      <c r="M13" s="33">
         <v>10</v>
       </c>
-      <c r="N13" s="33">
+      <c r="N13" s="31">
         <v>8</v>
       </c>
-      <c r="O13" s="34">
+      <c r="O13" s="32">
         <v>4</v>
       </c>
-      <c r="P13" s="34">
+      <c r="P13" s="32">
         <v>12</v>
       </c>
     </row>
@@ -4174,22 +4693,22 @@
       <c r="J14" s="23">
         <v>10</v>
       </c>
-      <c r="K14" s="34">
+      <c r="K14" s="32">
         <v>3</v>
       </c>
-      <c r="L14" s="34">
+      <c r="L14" s="32">
         <v>8</v>
       </c>
-      <c r="M14" s="35">
+      <c r="M14" s="33">
         <v>11</v>
       </c>
-      <c r="N14" s="33">
+      <c r="N14" s="31">
         <v>9</v>
       </c>
-      <c r="O14" s="34">
+      <c r="O14" s="32">
         <v>14</v>
       </c>
-      <c r="P14" s="34">
+      <c r="P14" s="32">
         <v>23</v>
       </c>
     </row>
@@ -4215,22 +4734,22 @@
       <c r="J15" s="23">
         <v>15</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="32">
         <v>7</v>
       </c>
-      <c r="L15" s="34">
+      <c r="L15" s="32">
         <v>8</v>
       </c>
-      <c r="M15" s="35">
+      <c r="M15" s="33">
         <v>15</v>
       </c>
-      <c r="N15" s="33">
+      <c r="N15" s="31">
         <v>3</v>
       </c>
-      <c r="O15" s="34">
+      <c r="O15" s="32">
         <v>7</v>
       </c>
-      <c r="P15" s="34">
+      <c r="P15" s="32">
         <v>10</v>
       </c>
     </row>
@@ -4256,22 +4775,22 @@
       <c r="J16" s="23">
         <v>8</v>
       </c>
-      <c r="K16" s="34">
+      <c r="K16" s="32">
         <v>11</v>
       </c>
-      <c r="L16" s="34">
+      <c r="L16" s="32">
         <v>8</v>
       </c>
-      <c r="M16" s="35">
+      <c r="M16" s="33">
         <v>19</v>
       </c>
-      <c r="N16" s="33">
+      <c r="N16" s="31">
         <v>7</v>
       </c>
-      <c r="O16" s="34">
+      <c r="O16" s="32">
         <v>5</v>
       </c>
-      <c r="P16" s="34">
+      <c r="P16" s="32">
         <v>12</v>
       </c>
     </row>
@@ -4297,22 +4816,22 @@
       <c r="J17" s="23">
         <v>25</v>
       </c>
-      <c r="K17" s="34">
+      <c r="K17" s="32">
         <v>5</v>
       </c>
-      <c r="L17" s="34">
+      <c r="L17" s="32">
         <v>4</v>
       </c>
-      <c r="M17" s="35">
+      <c r="M17" s="33">
         <v>9</v>
       </c>
-      <c r="N17" s="33">
+      <c r="N17" s="31">
         <v>11</v>
       </c>
-      <c r="O17" s="34">
+      <c r="O17" s="32">
         <v>12</v>
       </c>
-      <c r="P17" s="34">
+      <c r="P17" s="32">
         <v>23</v>
       </c>
     </row>
@@ -4338,22 +4857,22 @@
       <c r="J18" s="23">
         <v>15</v>
       </c>
-      <c r="K18" s="34">
+      <c r="K18" s="32">
         <v>2</v>
       </c>
-      <c r="L18" s="34">
+      <c r="L18" s="32">
         <v>9</v>
       </c>
-      <c r="M18" s="35">
+      <c r="M18" s="33">
         <v>11</v>
       </c>
-      <c r="N18" s="33">
+      <c r="N18" s="31">
         <v>5</v>
       </c>
-      <c r="O18" s="34">
+      <c r="O18" s="32">
         <v>9</v>
       </c>
-      <c r="P18" s="34">
+      <c r="P18" s="32">
         <v>14</v>
       </c>
     </row>
@@ -4379,22 +4898,22 @@
       <c r="J19" s="23">
         <v>8</v>
       </c>
-      <c r="K19" s="34">
+      <c r="K19" s="32">
         <v>5</v>
       </c>
-      <c r="L19" s="34">
+      <c r="L19" s="32">
         <v>6</v>
       </c>
-      <c r="M19" s="35">
+      <c r="M19" s="33">
         <v>11</v>
       </c>
-      <c r="N19" s="33">
+      <c r="N19" s="31">
         <v>5</v>
       </c>
-      <c r="O19" s="34">
+      <c r="O19" s="32">
         <v>7</v>
       </c>
-      <c r="P19" s="34">
+      <c r="P19" s="32">
         <v>12</v>
       </c>
     </row>
@@ -4420,22 +4939,22 @@
       <c r="J20" s="23">
         <v>15</v>
       </c>
-      <c r="K20" s="34">
+      <c r="K20" s="32">
         <v>10</v>
       </c>
-      <c r="L20" s="34">
+      <c r="L20" s="32">
         <v>9</v>
       </c>
-      <c r="M20" s="35">
+      <c r="M20" s="33">
         <v>19</v>
       </c>
-      <c r="N20" s="33">
+      <c r="N20" s="31">
         <v>4</v>
       </c>
-      <c r="O20" s="34">
+      <c r="O20" s="32">
         <v>4</v>
       </c>
-      <c r="P20" s="34">
+      <c r="P20" s="32">
         <v>8</v>
       </c>
     </row>
@@ -4461,32 +4980,32 @@
       <c r="J21" s="23">
         <v>8</v>
       </c>
-      <c r="K21" s="34">
+      <c r="K21" s="32">
         <v>6</v>
       </c>
-      <c r="L21" s="34">
+      <c r="L21" s="32">
         <v>4</v>
       </c>
-      <c r="M21" s="35">
+      <c r="M21" s="33">
         <v>10</v>
       </c>
-      <c r="N21" s="33">
+      <c r="N21" s="31">
         <v>4</v>
       </c>
-      <c r="O21" s="34">
+      <c r="O21" s="32">
         <v>6</v>
       </c>
-      <c r="P21" s="34">
+      <c r="P21" s="32">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" s="10"/>
       <c r="D22" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E22" s="18">
         <f>SUM(E4:E21)</f>
@@ -4512,27 +5031,27 @@
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
-      <c r="K22" s="31">
+      <c r="K22" s="29">
         <f t="shared" ref="K22" si="1">SUM(K4:K21)</f>
         <v>107</v>
       </c>
-      <c r="L22" s="31">
+      <c r="L22" s="29">
         <f t="shared" ref="L22" si="2">SUM(L4:L21)</f>
         <v>118</v>
       </c>
-      <c r="M22" s="32">
+      <c r="M22" s="30">
         <f t="shared" ref="M22" si="3">SUM(M4:M21)</f>
         <v>225</v>
       </c>
-      <c r="N22" s="30">
+      <c r="N22" s="28">
         <f t="shared" ref="N22" si="4">SUM(N4:N21)</f>
         <v>109</v>
       </c>
-      <c r="O22" s="31">
+      <c r="O22" s="29">
         <f t="shared" ref="O22" si="5">SUM(O4:O21)</f>
         <v>158</v>
       </c>
-      <c r="P22" s="31">
+      <c r="P22" s="29">
         <f t="shared" ref="P22" si="6">SUM(P4:P21)</f>
         <v>267</v>
       </c>
@@ -4542,58 +5061,58 @@
         <v>23</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E23" s="24">
-        <f>E22/126</f>
-        <v>0.86507936507936511</v>
-      </c>
-      <c r="F23" s="25">
-        <f t="shared" ref="F23:J23" si="7">F22/126</f>
-        <v>1.253968253968254</v>
-      </c>
-      <c r="G23" s="25">
+        <f>E22/153</f>
+        <v>0.71241830065359479</v>
+      </c>
+      <c r="F23" s="24">
+        <f t="shared" ref="F23:P23" si="7">F22/153</f>
+        <v>1.0326797385620916</v>
+      </c>
+      <c r="G23" s="24">
         <f t="shared" si="7"/>
-        <v>2.1190476190476191</v>
-      </c>
-      <c r="H23" s="25">
+        <v>1.7450980392156863</v>
+      </c>
+      <c r="H23" s="24">
         <f t="shared" si="7"/>
-        <v>0.84920634920634919</v>
-      </c>
-      <c r="I23" s="25">
+        <v>0.69934640522875813</v>
+      </c>
+      <c r="I23" s="24">
         <f t="shared" si="7"/>
-        <v>0.93650793650793651</v>
-      </c>
-      <c r="J23" s="26">
+        <v>0.77124183006535951</v>
+      </c>
+      <c r="J23" s="24">
         <f t="shared" si="7"/>
-        <v>1.7857142857142858</v>
-      </c>
-      <c r="K23" s="37">
-        <f t="shared" ref="K23" si="8">K22/126</f>
-        <v>0.84920634920634919</v>
-      </c>
-      <c r="L23" s="37">
-        <f t="shared" ref="L23" si="9">L22/126</f>
-        <v>0.93650793650793651</v>
-      </c>
-      <c r="M23" s="38">
-        <f t="shared" ref="M23" si="10">M22/126</f>
-        <v>1.7857142857142858</v>
-      </c>
-      <c r="N23" s="36">
-        <f t="shared" ref="N23" si="11">N22/126</f>
-        <v>0.86507936507936511</v>
-      </c>
-      <c r="O23" s="37">
-        <f t="shared" ref="O23" si="12">O22/126</f>
-        <v>1.253968253968254</v>
-      </c>
-      <c r="P23" s="37">
-        <f t="shared" ref="P23" si="13">P22/126</f>
-        <v>2.1190476190476191</v>
+        <v>1.4705882352941178</v>
+      </c>
+      <c r="K23" s="24">
+        <f t="shared" si="7"/>
+        <v>0.69934640522875813</v>
+      </c>
+      <c r="L23" s="24">
+        <f t="shared" si="7"/>
+        <v>0.77124183006535951</v>
+      </c>
+      <c r="M23" s="24">
+        <f t="shared" si="7"/>
+        <v>1.4705882352941178</v>
+      </c>
+      <c r="N23" s="24">
+        <f t="shared" si="7"/>
+        <v>0.71241830065359479</v>
+      </c>
+      <c r="O23" s="24">
+        <f t="shared" si="7"/>
+        <v>1.0326797385620916</v>
+      </c>
+      <c r="P23" s="24">
+        <f t="shared" si="7"/>
+        <v>1.7450980392156863</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -4601,7 +5120,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -4609,7 +5128,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -4617,7 +5136,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -4625,7 +5144,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4633,7 +5152,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -4645,16 +5164,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC65B69-CF34-45C8-9F4D-336FF78C9C73}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>